--- a/generator/data/generated_business_labels_map.xlsx
+++ b/generator/data/generated_business_labels_map.xlsx
@@ -6161,7 +6161,7 @@
         <v>112</v>
       </c>
       <c r="J72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K72" t="s">
         <v>774</v>
@@ -6231,7 +6231,7 @@
         <v>112</v>
       </c>
       <c r="J74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K74" t="s">
         <v>776</v>
@@ -6919,7 +6919,7 @@
         <v>112</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K94" t="s">
         <v>796</v>
@@ -7129,7 +7129,7 @@
         <v>112</v>
       </c>
       <c r="J100">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K100" t="s">
         <v>802</v>

--- a/generator/data/generated_business_labels_map.xlsx
+++ b/generator/data/generated_business_labels_map.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="1078">
   <si>
     <t>variable</t>
   </si>
@@ -2360,6 +2360,9 @@
   </si>
   <si>
     <t>m_biz_type__4</t>
+  </si>
+  <si>
+    <t>m_biz_type__9</t>
   </si>
   <si>
     <t>m_biz_years_in_operation__1</t>
@@ -3602,7 +3605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K388"/>
+  <dimension ref="A1:K389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6814,22 +6817,25 @@
       <c r="I93">
         <v>112</v>
       </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
       <c r="K93" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D94" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="E94" t="s">
         <v>688</v>
@@ -6847,7 +6853,7 @@
         <v>112</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94" t="s">
         <v>782</v>
@@ -6858,13 +6864,13 @@
         <v>34</v>
       </c>
       <c r="B95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E95" t="s">
         <v>688</v>
@@ -6882,7 +6888,7 @@
         <v>112</v>
       </c>
       <c r="J95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K95" t="s">
         <v>783</v>
@@ -6893,13 +6899,13 @@
         <v>34</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E96" t="s">
         <v>688</v>
@@ -6917,7 +6923,7 @@
         <v>112</v>
       </c>
       <c r="J96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K96" t="s">
         <v>784</v>
@@ -6928,13 +6934,13 @@
         <v>34</v>
       </c>
       <c r="B97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E97" t="s">
         <v>688</v>
@@ -6952,7 +6958,7 @@
         <v>112</v>
       </c>
       <c r="J97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K97" t="s">
         <v>785</v>
@@ -6963,13 +6969,13 @@
         <v>34</v>
       </c>
       <c r="B98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D98" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E98" t="s">
         <v>688</v>
@@ -6987,7 +6993,7 @@
         <v>112</v>
       </c>
       <c r="J98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K98" t="s">
         <v>786</v>
@@ -6995,16 +7001,16 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99" t="s">
-        <v>153</v>
+        <v>478</v>
       </c>
       <c r="E99" t="s">
         <v>688</v>
@@ -7020,6 +7026,9 @@
       </c>
       <c r="I99">
         <v>112</v>
+      </c>
+      <c r="J99">
+        <v>6</v>
       </c>
       <c r="K99" t="s">
         <v>787</v>
@@ -7030,13 +7039,13 @@
         <v>35</v>
       </c>
       <c r="B100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E100" t="s">
         <v>688</v>
@@ -7062,13 +7071,13 @@
         <v>35</v>
       </c>
       <c r="B101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E101" t="s">
         <v>688</v>
@@ -7094,13 +7103,13 @@
         <v>35</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
         <v>688</v>
@@ -7126,13 +7135,13 @@
         <v>35</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E103" t="s">
         <v>688</v>
@@ -7158,13 +7167,13 @@
         <v>35</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s">
         <v>688</v>
@@ -7190,13 +7199,13 @@
         <v>35</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E105" t="s">
         <v>688</v>
@@ -7222,13 +7231,13 @@
         <v>35</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="D106" t="s">
-        <v>429</v>
+        <v>159</v>
       </c>
       <c r="E106" t="s">
         <v>688</v>
@@ -7251,19 +7260,19 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D107" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="E107" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7286,13 +7295,13 @@
         <v>36</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D108" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E108" t="s">
         <v>687</v>
@@ -7318,13 +7327,13 @@
         <v>36</v>
       </c>
       <c r="B109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D109" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E109" t="s">
         <v>687</v>
@@ -7350,13 +7359,13 @@
         <v>36</v>
       </c>
       <c r="B110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D110" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E110" t="s">
         <v>687</v>
@@ -7382,13 +7391,13 @@
         <v>36</v>
       </c>
       <c r="B111">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E111" t="s">
         <v>687</v>
@@ -7414,13 +7423,13 @@
         <v>36</v>
       </c>
       <c r="B112">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D112" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E112" t="s">
         <v>687</v>
@@ -7446,13 +7455,13 @@
         <v>36</v>
       </c>
       <c r="B113">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D113" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E113" t="s">
         <v>687</v>
@@ -7478,13 +7487,13 @@
         <v>36</v>
       </c>
       <c r="B114">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D114" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E114" t="s">
         <v>687</v>
@@ -7510,13 +7519,13 @@
         <v>36</v>
       </c>
       <c r="B115">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D115" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E115" t="s">
         <v>687</v>
@@ -7542,13 +7551,13 @@
         <v>36</v>
       </c>
       <c r="B116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D116" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E116" t="s">
         <v>687</v>
@@ -7574,13 +7583,13 @@
         <v>36</v>
       </c>
       <c r="B117">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D117" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E117" t="s">
         <v>687</v>
@@ -7606,13 +7615,13 @@
         <v>36</v>
       </c>
       <c r="B118">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D118" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E118" t="s">
         <v>687</v>
@@ -7638,13 +7647,13 @@
         <v>36</v>
       </c>
       <c r="B119">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D119" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E119" t="s">
         <v>687</v>
@@ -7670,13 +7679,13 @@
         <v>36</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E120" t="s">
         <v>687</v>
@@ -7702,13 +7711,13 @@
         <v>36</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D121" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E121" t="s">
         <v>687</v>
@@ -7734,13 +7743,13 @@
         <v>36</v>
       </c>
       <c r="B122">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D122" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E122" t="s">
         <v>687</v>
@@ -7766,13 +7775,13 @@
         <v>36</v>
       </c>
       <c r="B123">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D123" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E123" t="s">
         <v>687</v>
@@ -7798,13 +7807,13 @@
         <v>36</v>
       </c>
       <c r="B124">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D124" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="E124" t="s">
         <v>687</v>
@@ -7827,16 +7836,16 @@
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="D125" t="s">
-        <v>496</v>
+        <v>429</v>
       </c>
       <c r="E125" t="s">
         <v>687</v>
@@ -7862,13 +7871,13 @@
         <v>37</v>
       </c>
       <c r="B126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D126" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E126" t="s">
         <v>687</v>
@@ -7894,13 +7903,13 @@
         <v>37</v>
       </c>
       <c r="B127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D127" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E127" t="s">
         <v>687</v>
@@ -7926,13 +7935,13 @@
         <v>37</v>
       </c>
       <c r="B128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D128" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E128" t="s">
         <v>687</v>
@@ -7958,13 +7967,13 @@
         <v>37</v>
       </c>
       <c r="B129">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D129" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E129" t="s">
         <v>687</v>
@@ -7990,13 +7999,13 @@
         <v>37</v>
       </c>
       <c r="B130">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D130" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E130" t="s">
         <v>687</v>
@@ -8022,13 +8031,13 @@
         <v>37</v>
       </c>
       <c r="B131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D131" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E131" t="s">
         <v>687</v>
@@ -8054,13 +8063,13 @@
         <v>37</v>
       </c>
       <c r="B132">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D132" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E132" t="s">
         <v>687</v>
@@ -8086,13 +8095,13 @@
         <v>37</v>
       </c>
       <c r="B133">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E133" t="s">
         <v>687</v>
@@ -8118,13 +8127,13 @@
         <v>37</v>
       </c>
       <c r="B134">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D134" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E134" t="s">
         <v>687</v>
@@ -8150,13 +8159,13 @@
         <v>37</v>
       </c>
       <c r="B135">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D135" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E135" t="s">
         <v>687</v>
@@ -8182,13 +8191,13 @@
         <v>37</v>
       </c>
       <c r="B136">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D136" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E136" t="s">
         <v>687</v>
@@ -8214,13 +8223,13 @@
         <v>37</v>
       </c>
       <c r="B137">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C137" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D137" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E137" t="s">
         <v>687</v>
@@ -8246,13 +8255,13 @@
         <v>37</v>
       </c>
       <c r="B138">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D138" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E138" t="s">
         <v>687</v>
@@ -8278,13 +8287,13 @@
         <v>37</v>
       </c>
       <c r="B139">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="D139" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="E139" t="s">
         <v>687</v>
@@ -8307,16 +8316,16 @@
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B140">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C140" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D140" t="s">
-        <v>479</v>
+        <v>429</v>
       </c>
       <c r="E140" t="s">
         <v>687</v>
@@ -8342,13 +8351,13 @@
         <v>38</v>
       </c>
       <c r="B141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D141" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E141" t="s">
         <v>687</v>
@@ -8374,13 +8383,13 @@
         <v>38</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D142" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E142" t="s">
         <v>687</v>
@@ -8406,13 +8415,13 @@
         <v>38</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D143" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E143" t="s">
         <v>687</v>
@@ -8438,13 +8447,13 @@
         <v>38</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D144" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E144" t="s">
         <v>687</v>
@@ -8470,13 +8479,13 @@
         <v>38</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D145" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E145" t="s">
         <v>687</v>
@@ -8502,13 +8511,13 @@
         <v>38</v>
       </c>
       <c r="B146">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D146" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E146" t="s">
         <v>687</v>
@@ -8534,13 +8543,13 @@
         <v>38</v>
       </c>
       <c r="B147">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D147" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E147" t="s">
         <v>687</v>
@@ -8566,13 +8575,13 @@
         <v>38</v>
       </c>
       <c r="B148">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D148" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E148" t="s">
         <v>687</v>
@@ -8598,13 +8607,13 @@
         <v>38</v>
       </c>
       <c r="B149">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D149" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E149" t="s">
         <v>687</v>
@@ -8630,13 +8639,13 @@
         <v>38</v>
       </c>
       <c r="B150">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D150" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E150" t="s">
         <v>687</v>
@@ -8662,13 +8671,13 @@
         <v>38</v>
       </c>
       <c r="B151">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D151" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E151" t="s">
         <v>687</v>
@@ -8694,13 +8703,13 @@
         <v>38</v>
       </c>
       <c r="B152">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D152" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E152" t="s">
         <v>687</v>
@@ -8726,13 +8735,13 @@
         <v>38</v>
       </c>
       <c r="B153">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C153" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D153" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E153" t="s">
         <v>687</v>
@@ -8758,13 +8767,13 @@
         <v>38</v>
       </c>
       <c r="B154">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E154" t="s">
         <v>687</v>
@@ -8790,13 +8799,13 @@
         <v>38</v>
       </c>
       <c r="B155">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E155" t="s">
         <v>687</v>
@@ -8822,13 +8831,13 @@
         <v>38</v>
       </c>
       <c r="B156">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D156" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E156" t="s">
         <v>687</v>
@@ -8854,13 +8863,13 @@
         <v>38</v>
       </c>
       <c r="B157">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C157" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="D157" t="s">
-        <v>429</v>
+        <v>495</v>
       </c>
       <c r="E157" t="s">
         <v>687</v>
@@ -8883,16 +8892,16 @@
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D158" t="s">
-        <v>510</v>
+        <v>429</v>
       </c>
       <c r="E158" t="s">
         <v>687</v>
@@ -8918,13 +8927,13 @@
         <v>39</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C159" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D159" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E159" t="s">
         <v>687</v>
@@ -8950,13 +8959,13 @@
         <v>39</v>
       </c>
       <c r="B160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C160" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D160" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E160" t="s">
         <v>687</v>
@@ -8982,13 +8991,13 @@
         <v>39</v>
       </c>
       <c r="B161">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C161" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E161" t="s">
         <v>687</v>
@@ -9014,13 +9023,13 @@
         <v>39</v>
       </c>
       <c r="B162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C162" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D162" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E162" t="s">
         <v>687</v>
@@ -9046,13 +9055,13 @@
         <v>39</v>
       </c>
       <c r="B163">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="D163" t="s">
-        <v>429</v>
+        <v>514</v>
       </c>
       <c r="E163" t="s">
         <v>687</v>
@@ -9075,16 +9084,16 @@
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B164">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="D164" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="E164" t="s">
         <v>687</v>
@@ -9110,13 +9119,13 @@
         <v>40</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="D165" t="s">
-        <v>515</v>
+        <v>418</v>
       </c>
       <c r="E165" t="s">
         <v>687</v>
@@ -9142,13 +9151,13 @@
         <v>40</v>
       </c>
       <c r="B166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D166" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E166" t="s">
         <v>687</v>
@@ -9171,16 +9180,16 @@
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D167" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E167" t="s">
         <v>687</v>
@@ -9196,9 +9205,6 @@
       </c>
       <c r="I167">
         <v>112</v>
-      </c>
-      <c r="J167">
-        <v>7</v>
       </c>
       <c r="K167" t="s">
         <v>855</v>
@@ -9209,13 +9215,13 @@
         <v>41</v>
       </c>
       <c r="B168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D168" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E168" t="s">
         <v>687</v>
@@ -9233,7 +9239,7 @@
         <v>112</v>
       </c>
       <c r="J168">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K168" t="s">
         <v>856</v>
@@ -9244,13 +9250,13 @@
         <v>41</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D169" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E169" t="s">
         <v>687</v>
@@ -9268,7 +9274,7 @@
         <v>112</v>
       </c>
       <c r="J169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K169" t="s">
         <v>857</v>
@@ -9279,13 +9285,13 @@
         <v>41</v>
       </c>
       <c r="B170">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D170" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E170" t="s">
         <v>687</v>
@@ -9303,7 +9309,7 @@
         <v>112</v>
       </c>
       <c r="J170">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K170" t="s">
         <v>858</v>
@@ -9314,13 +9320,13 @@
         <v>41</v>
       </c>
       <c r="B171">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D171" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E171" t="s">
         <v>687</v>
@@ -9338,7 +9344,7 @@
         <v>112</v>
       </c>
       <c r="J171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K171" t="s">
         <v>859</v>
@@ -9349,13 +9355,13 @@
         <v>41</v>
       </c>
       <c r="B172">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="D172" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="E172" t="s">
         <v>687</v>
@@ -9373,7 +9379,7 @@
         <v>112</v>
       </c>
       <c r="J172">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K172" t="s">
         <v>860</v>
@@ -9381,16 +9387,16 @@
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="D173" t="s">
-        <v>522</v>
+        <v>429</v>
       </c>
       <c r="E173" t="s">
         <v>687</v>
@@ -9408,7 +9414,7 @@
         <v>112</v>
       </c>
       <c r="J173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K173" t="s">
         <v>861</v>
@@ -9419,13 +9425,13 @@
         <v>42</v>
       </c>
       <c r="B174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D174" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E174" t="s">
         <v>687</v>
@@ -9443,7 +9449,7 @@
         <v>112</v>
       </c>
       <c r="J174">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K174" t="s">
         <v>862</v>
@@ -9454,13 +9460,13 @@
         <v>42</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D175" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E175" t="s">
         <v>687</v>
@@ -9478,7 +9484,7 @@
         <v>112</v>
       </c>
       <c r="J175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K175" t="s">
         <v>863</v>
@@ -9486,16 +9492,16 @@
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D176" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E176" t="s">
         <v>687</v>
@@ -9513,7 +9519,7 @@
         <v>112</v>
       </c>
       <c r="J176">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K176" t="s">
         <v>864</v>
@@ -9524,13 +9530,13 @@
         <v>43</v>
       </c>
       <c r="B177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C177" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D177" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E177" t="s">
         <v>687</v>
@@ -9548,7 +9554,7 @@
         <v>112</v>
       </c>
       <c r="J177">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K177" t="s">
         <v>865</v>
@@ -9559,13 +9565,13 @@
         <v>43</v>
       </c>
       <c r="B178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D178" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E178" t="s">
         <v>687</v>
@@ -9583,7 +9589,7 @@
         <v>112</v>
       </c>
       <c r="J178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K178" t="s">
         <v>866</v>
@@ -9594,13 +9600,13 @@
         <v>43</v>
       </c>
       <c r="B179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D179" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E179" t="s">
         <v>687</v>
@@ -9618,7 +9624,7 @@
         <v>112</v>
       </c>
       <c r="J179">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K179" t="s">
         <v>867</v>
@@ -9629,13 +9635,13 @@
         <v>43</v>
       </c>
       <c r="B180">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C180" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D180" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E180" t="s">
         <v>687</v>
@@ -9653,7 +9659,7 @@
         <v>112</v>
       </c>
       <c r="J180">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K180" t="s">
         <v>868</v>
@@ -9664,13 +9670,13 @@
         <v>43</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D181" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E181" t="s">
         <v>687</v>
@@ -9688,7 +9694,7 @@
         <v>112</v>
       </c>
       <c r="J181">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K181" t="s">
         <v>869</v>
@@ -9696,19 +9702,19 @@
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D182" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E182" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -9723,7 +9729,7 @@
         <v>112</v>
       </c>
       <c r="J182">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K182" t="s">
         <v>870</v>
@@ -9734,13 +9740,13 @@
         <v>44</v>
       </c>
       <c r="B183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C183" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D183" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E183" t="s">
         <v>686</v>
@@ -9758,7 +9764,7 @@
         <v>112</v>
       </c>
       <c r="J183">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K183" t="s">
         <v>871</v>
@@ -9769,13 +9775,13 @@
         <v>44</v>
       </c>
       <c r="B184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D184" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E184" t="s">
         <v>686</v>
@@ -9793,7 +9799,7 @@
         <v>112</v>
       </c>
       <c r="J184">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K184" t="s">
         <v>872</v>
@@ -9804,13 +9810,13 @@
         <v>44</v>
       </c>
       <c r="B185">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D185" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E185" t="s">
         <v>686</v>
@@ -9828,7 +9834,7 @@
         <v>112</v>
       </c>
       <c r="J185">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K185" t="s">
         <v>873</v>
@@ -9839,13 +9845,13 @@
         <v>44</v>
       </c>
       <c r="B186">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D186" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E186" t="s">
         <v>686</v>
@@ -9863,7 +9869,7 @@
         <v>112</v>
       </c>
       <c r="J186">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K186" t="s">
         <v>874</v>
@@ -9874,13 +9880,13 @@
         <v>44</v>
       </c>
       <c r="B187">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="D187" t="s">
-        <v>429</v>
+        <v>535</v>
       </c>
       <c r="E187" t="s">
         <v>686</v>
@@ -9898,7 +9904,7 @@
         <v>112</v>
       </c>
       <c r="J187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K187" t="s">
         <v>875</v>
@@ -9906,34 +9912,34 @@
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B188">
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>141</v>
+      </c>
+      <c r="D188" t="s">
+        <v>429</v>
+      </c>
+      <c r="E188" t="s">
+        <v>686</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <v>112</v>
+      </c>
+      <c r="J188">
         <v>1</v>
-      </c>
-      <c r="C188" t="s">
-        <v>217</v>
-      </c>
-      <c r="D188" t="s">
-        <v>536</v>
-      </c>
-      <c r="E188" t="s">
-        <v>685</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
-      </c>
-      <c r="G188">
-        <v>0</v>
-      </c>
-      <c r="H188">
-        <v>0</v>
-      </c>
-      <c r="I188">
-        <v>112</v>
-      </c>
-      <c r="J188">
-        <v>7</v>
       </c>
       <c r="K188" t="s">
         <v>876</v>
@@ -9944,13 +9950,13 @@
         <v>45</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D189" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E189" t="s">
         <v>685</v>
@@ -9968,7 +9974,7 @@
         <v>112</v>
       </c>
       <c r="J189">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K189" t="s">
         <v>877</v>
@@ -9979,13 +9985,13 @@
         <v>45</v>
       </c>
       <c r="B190">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D190" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E190" t="s">
         <v>685</v>
@@ -10003,7 +10009,7 @@
         <v>112</v>
       </c>
       <c r="J190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K190" t="s">
         <v>878</v>
@@ -10014,13 +10020,13 @@
         <v>45</v>
       </c>
       <c r="B191">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C191" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D191" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E191" t="s">
         <v>685</v>
@@ -10038,7 +10044,7 @@
         <v>112</v>
       </c>
       <c r="J191">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K191" t="s">
         <v>879</v>
@@ -10049,13 +10055,13 @@
         <v>45</v>
       </c>
       <c r="B192">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="D192" t="s">
-        <v>429</v>
+        <v>539</v>
       </c>
       <c r="E192" t="s">
         <v>685</v>
@@ -10073,7 +10079,7 @@
         <v>112</v>
       </c>
       <c r="J192">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K192" t="s">
         <v>880</v>
@@ -10084,13 +10090,13 @@
         <v>45</v>
       </c>
       <c r="B193">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
       <c r="D193" t="s">
-        <v>540</v>
+        <v>429</v>
       </c>
       <c r="E193" t="s">
         <v>685</v>
@@ -10108,7 +10114,7 @@
         <v>112</v>
       </c>
       <c r="J193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K193" t="s">
         <v>881</v>
@@ -10116,16 +10122,16 @@
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D194" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E194" t="s">
         <v>685</v>
@@ -10143,7 +10149,7 @@
         <v>112</v>
       </c>
       <c r="J194">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K194" t="s">
         <v>882</v>
@@ -10154,13 +10160,13 @@
         <v>46</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D195" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E195" t="s">
         <v>685</v>
@@ -10178,7 +10184,7 @@
         <v>112</v>
       </c>
       <c r="J195">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K195" t="s">
         <v>883</v>
@@ -10189,13 +10195,13 @@
         <v>46</v>
       </c>
       <c r="B196">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D196" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E196" t="s">
         <v>685</v>
@@ -10213,7 +10219,7 @@
         <v>112</v>
       </c>
       <c r="J196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K196" t="s">
         <v>884</v>
@@ -10224,13 +10230,13 @@
         <v>46</v>
       </c>
       <c r="B197">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D197" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E197" t="s">
         <v>685</v>
@@ -10248,7 +10254,7 @@
         <v>112</v>
       </c>
       <c r="J197">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K197" t="s">
         <v>885</v>
@@ -10259,13 +10265,13 @@
         <v>46</v>
       </c>
       <c r="B198">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
-        <v>141</v>
+        <v>225</v>
       </c>
       <c r="D198" t="s">
-        <v>429</v>
+        <v>544</v>
       </c>
       <c r="E198" t="s">
         <v>685</v>
@@ -10283,7 +10289,7 @@
         <v>112</v>
       </c>
       <c r="J198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K198" t="s">
         <v>886</v>
@@ -10294,13 +10300,13 @@
         <v>46</v>
       </c>
       <c r="B199">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="D199" t="s">
-        <v>545</v>
+        <v>429</v>
       </c>
       <c r="E199" t="s">
         <v>685</v>
@@ -10318,7 +10324,7 @@
         <v>112</v>
       </c>
       <c r="J199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K199" t="s">
         <v>887</v>
@@ -10326,19 +10332,19 @@
     </row>
     <row r="200" spans="1:11">
       <c r="A200" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D200" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E200" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -10351,6 +10357,9 @@
       </c>
       <c r="I200">
         <v>112</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
       </c>
       <c r="K200" t="s">
         <v>888</v>
@@ -10361,13 +10370,13 @@
         <v>47</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D201" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E201" t="s">
         <v>689</v>
@@ -10393,13 +10402,13 @@
         <v>47</v>
       </c>
       <c r="B202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D202" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E202" t="s">
         <v>689</v>
@@ -10425,13 +10434,13 @@
         <v>47</v>
       </c>
       <c r="B203">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C203" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D203" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E203" t="s">
         <v>689</v>
@@ -10457,13 +10466,13 @@
         <v>47</v>
       </c>
       <c r="B204">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D204" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E204" t="s">
         <v>689</v>
@@ -10489,13 +10498,13 @@
         <v>47</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D205" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E205" t="s">
         <v>689</v>
@@ -10521,13 +10530,13 @@
         <v>47</v>
       </c>
       <c r="B206">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D206" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E206" t="s">
         <v>689</v>
@@ -10553,13 +10562,13 @@
         <v>47</v>
       </c>
       <c r="B207">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D207" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E207" t="s">
         <v>689</v>
@@ -10585,13 +10594,13 @@
         <v>47</v>
       </c>
       <c r="B208">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D208" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E208" t="s">
         <v>689</v>
@@ -10617,13 +10626,13 @@
         <v>47</v>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C209" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D209" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E209" t="s">
         <v>689</v>
@@ -10649,13 +10658,13 @@
         <v>47</v>
       </c>
       <c r="B210">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D210" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E210" t="s">
         <v>689</v>
@@ -10681,13 +10690,13 @@
         <v>47</v>
       </c>
       <c r="B211">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C211" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D211" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E211" t="s">
         <v>689</v>
@@ -10713,13 +10722,13 @@
         <v>47</v>
       </c>
       <c r="B212">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C212" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D212" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E212" t="s">
         <v>689</v>
@@ -10745,13 +10754,13 @@
         <v>47</v>
       </c>
       <c r="B213">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D213" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E213" t="s">
         <v>689</v>
@@ -10777,13 +10786,13 @@
         <v>47</v>
       </c>
       <c r="B214">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C214" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D214" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E214" t="s">
         <v>689</v>
@@ -10809,13 +10818,13 @@
         <v>47</v>
       </c>
       <c r="B215">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D215" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E215" t="s">
         <v>689</v>
@@ -10841,13 +10850,13 @@
         <v>47</v>
       </c>
       <c r="B216">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D216" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E216" t="s">
         <v>689</v>
@@ -10873,13 +10882,13 @@
         <v>47</v>
       </c>
       <c r="B217">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C217" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D217" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E217" t="s">
         <v>689</v>
@@ -10905,13 +10914,13 @@
         <v>47</v>
       </c>
       <c r="B218">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="D218" t="s">
-        <v>429</v>
+        <v>563</v>
       </c>
       <c r="E218" t="s">
         <v>689</v>
@@ -10934,16 +10943,16 @@
     </row>
     <row r="219" spans="1:11">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C219" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="D219" t="s">
-        <v>546</v>
+        <v>429</v>
       </c>
       <c r="E219" t="s">
         <v>689</v>
@@ -10969,13 +10978,13 @@
         <v>48</v>
       </c>
       <c r="B220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D220" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E220" t="s">
         <v>689</v>
@@ -11001,13 +11010,13 @@
         <v>48</v>
       </c>
       <c r="B221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D221" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="E221" t="s">
         <v>689</v>
@@ -11033,13 +11042,13 @@
         <v>48</v>
       </c>
       <c r="B222">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="D222" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="E222" t="s">
         <v>689</v>
@@ -11065,13 +11074,13 @@
         <v>48</v>
       </c>
       <c r="B223">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C223" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D223" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E223" t="s">
         <v>689</v>
@@ -11097,13 +11106,13 @@
         <v>48</v>
       </c>
       <c r="B224">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D224" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="E224" t="s">
         <v>689</v>
@@ -11129,13 +11138,13 @@
         <v>48</v>
       </c>
       <c r="B225">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D225" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E225" t="s">
         <v>689</v>
@@ -11161,13 +11170,13 @@
         <v>48</v>
       </c>
       <c r="B226">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="D226" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="E226" t="s">
         <v>689</v>
@@ -11193,13 +11202,13 @@
         <v>48</v>
       </c>
       <c r="B227">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D227" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E227" t="s">
         <v>689</v>
@@ -11225,13 +11234,13 @@
         <v>48</v>
       </c>
       <c r="B228">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="D228" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="E228" t="s">
         <v>689</v>
@@ -11257,13 +11266,13 @@
         <v>48</v>
       </c>
       <c r="B229">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D229" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="E229" t="s">
         <v>689</v>
@@ -11289,13 +11298,13 @@
         <v>48</v>
       </c>
       <c r="B230">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C230" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="D230" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="E230" t="s">
         <v>689</v>
@@ -11321,13 +11330,13 @@
         <v>48</v>
       </c>
       <c r="B231">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D231" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E231" t="s">
         <v>689</v>
@@ -11353,13 +11362,13 @@
         <v>48</v>
       </c>
       <c r="B232">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C232" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D232" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="E232" t="s">
         <v>689</v>
@@ -11385,13 +11394,13 @@
         <v>48</v>
       </c>
       <c r="B233">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C233" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D233" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E233" t="s">
         <v>689</v>
@@ -11417,13 +11426,13 @@
         <v>48</v>
       </c>
       <c r="B234">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C234" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D234" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E234" t="s">
         <v>689</v>
@@ -11449,13 +11458,13 @@
         <v>48</v>
       </c>
       <c r="B235">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="D235" t="s">
-        <v>429</v>
+        <v>557</v>
       </c>
       <c r="E235" t="s">
         <v>689</v>
@@ -11478,19 +11487,19 @@
     </row>
     <row r="236" spans="1:11">
       <c r="A236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C236" t="s">
-        <v>245</v>
+        <v>141</v>
       </c>
       <c r="D236" t="s">
-        <v>565</v>
+        <v>429</v>
       </c>
       <c r="E236" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="F236">
         <v>0</v>
@@ -11503,9 +11512,6 @@
       </c>
       <c r="I236">
         <v>112</v>
-      </c>
-      <c r="J236">
-        <v>2</v>
       </c>
       <c r="K236" t="s">
         <v>924</v>
@@ -11516,13 +11522,13 @@
         <v>49</v>
       </c>
       <c r="B237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D237" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E237" t="s">
         <v>684</v>
@@ -11540,7 +11546,7 @@
         <v>112</v>
       </c>
       <c r="J237">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K237" t="s">
         <v>925</v>
@@ -11551,13 +11557,13 @@
         <v>49</v>
       </c>
       <c r="B238">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C238" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D238" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E238" t="s">
         <v>684</v>
@@ -11575,7 +11581,7 @@
         <v>112</v>
       </c>
       <c r="J238">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K238" t="s">
         <v>926</v>
@@ -11586,13 +11592,13 @@
         <v>49</v>
       </c>
       <c r="B239">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C239" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D239" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E239" t="s">
         <v>684</v>
@@ -11610,7 +11616,7 @@
         <v>112</v>
       </c>
       <c r="J239">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K239" t="s">
         <v>927</v>
@@ -11621,13 +11627,13 @@
         <v>49</v>
       </c>
       <c r="B240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C240" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="D240" t="s">
-        <v>429</v>
+        <v>568</v>
       </c>
       <c r="E240" t="s">
         <v>684</v>
@@ -11645,7 +11651,7 @@
         <v>112</v>
       </c>
       <c r="J240">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K240" t="s">
         <v>928</v>
@@ -11656,13 +11662,13 @@
         <v>49</v>
       </c>
       <c r="B241">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D241" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="E241" t="s">
         <v>684</v>
@@ -11680,7 +11686,7 @@
         <v>112</v>
       </c>
       <c r="J241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K241" t="s">
         <v>929</v>
@@ -11688,16 +11694,16 @@
     </row>
     <row r="242" spans="1:11">
       <c r="A242" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B242">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D242" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E242" t="s">
         <v>684</v>
@@ -11715,7 +11721,7 @@
         <v>112</v>
       </c>
       <c r="J242">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K242" t="s">
         <v>930</v>
@@ -11726,13 +11732,13 @@
         <v>50</v>
       </c>
       <c r="B243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D243" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E243" t="s">
         <v>684</v>
@@ -11750,7 +11756,7 @@
         <v>112</v>
       </c>
       <c r="J243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K243" t="s">
         <v>931</v>
@@ -11761,13 +11767,13 @@
         <v>50</v>
       </c>
       <c r="B244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C244" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D244" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E244" t="s">
         <v>684</v>
@@ -11785,7 +11791,7 @@
         <v>112</v>
       </c>
       <c r="J244">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K244" t="s">
         <v>932</v>
@@ -11796,13 +11802,13 @@
         <v>50</v>
       </c>
       <c r="B245">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C245" t="s">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c r="D245" t="s">
-        <v>429</v>
+        <v>572</v>
       </c>
       <c r="E245" t="s">
         <v>684</v>
@@ -11820,7 +11826,7 @@
         <v>112</v>
       </c>
       <c r="J245">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K245" t="s">
         <v>933</v>
@@ -11831,13 +11837,13 @@
         <v>50</v>
       </c>
       <c r="B246">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C246" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D246" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="E246" t="s">
         <v>684</v>
@@ -11855,7 +11861,7 @@
         <v>112</v>
       </c>
       <c r="J246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246" t="s">
         <v>934</v>
@@ -11863,16 +11869,16 @@
     </row>
     <row r="247" spans="1:11">
       <c r="A247" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D247" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E247" t="s">
         <v>684</v>
@@ -11890,7 +11896,7 @@
         <v>112</v>
       </c>
       <c r="J247">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K247" t="s">
         <v>935</v>
@@ -11901,13 +11907,13 @@
         <v>51</v>
       </c>
       <c r="B248">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D248" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E248" t="s">
         <v>684</v>
@@ -11925,7 +11931,7 @@
         <v>112</v>
       </c>
       <c r="J248">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K248" t="s">
         <v>936</v>
@@ -11936,13 +11942,13 @@
         <v>51</v>
       </c>
       <c r="B249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D249" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E249" t="s">
         <v>684</v>
@@ -11960,7 +11966,7 @@
         <v>112</v>
       </c>
       <c r="J249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K249" t="s">
         <v>937</v>
@@ -11971,13 +11977,13 @@
         <v>51</v>
       </c>
       <c r="B250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>141</v>
+        <v>255</v>
       </c>
       <c r="D250" t="s">
-        <v>429</v>
+        <v>575</v>
       </c>
       <c r="E250" t="s">
         <v>684</v>
@@ -11995,7 +12001,7 @@
         <v>112</v>
       </c>
       <c r="J250">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K250" t="s">
         <v>938</v>
@@ -12006,13 +12012,13 @@
         <v>51</v>
       </c>
       <c r="B251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C251" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D251" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="E251" t="s">
         <v>684</v>
@@ -12030,7 +12036,7 @@
         <v>112</v>
       </c>
       <c r="J251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K251" t="s">
         <v>939</v>
@@ -12038,16 +12044,16 @@
     </row>
     <row r="252" spans="1:11">
       <c r="A252" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B252">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D252" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E252" t="s">
         <v>684</v>
@@ -12065,7 +12071,7 @@
         <v>112</v>
       </c>
       <c r="J252">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K252" t="s">
         <v>940</v>
@@ -12076,13 +12082,13 @@
         <v>52</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D253" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E253" t="s">
         <v>684</v>
@@ -12100,7 +12106,7 @@
         <v>112</v>
       </c>
       <c r="J253">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K253" t="s">
         <v>941</v>
@@ -12111,13 +12117,13 @@
         <v>52</v>
       </c>
       <c r="B254">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C254" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D254" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E254" t="s">
         <v>684</v>
@@ -12135,7 +12141,7 @@
         <v>112</v>
       </c>
       <c r="J254">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K254" t="s">
         <v>942</v>
@@ -12146,13 +12152,13 @@
         <v>52</v>
       </c>
       <c r="B255">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C255" t="s">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c r="D255" t="s">
-        <v>429</v>
+        <v>578</v>
       </c>
       <c r="E255" t="s">
         <v>684</v>
@@ -12170,7 +12176,7 @@
         <v>112</v>
       </c>
       <c r="J255">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K255" t="s">
         <v>943</v>
@@ -12181,13 +12187,13 @@
         <v>52</v>
       </c>
       <c r="B256">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C256" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D256" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="E256" t="s">
         <v>684</v>
@@ -12205,7 +12211,7 @@
         <v>112</v>
       </c>
       <c r="J256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K256" t="s">
         <v>944</v>
@@ -12213,16 +12219,16 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B257">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D257" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="E257" t="s">
         <v>684</v>
@@ -12240,7 +12246,7 @@
         <v>112</v>
       </c>
       <c r="J257">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K257" t="s">
         <v>945</v>
@@ -12251,13 +12257,13 @@
         <v>53</v>
       </c>
       <c r="B258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D258" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E258" t="s">
         <v>684</v>
@@ -12275,7 +12281,7 @@
         <v>112</v>
       </c>
       <c r="J258">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K258" t="s">
         <v>946</v>
@@ -12286,13 +12292,13 @@
         <v>53</v>
       </c>
       <c r="B259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D259" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E259" t="s">
         <v>684</v>
@@ -12310,7 +12316,7 @@
         <v>112</v>
       </c>
       <c r="J259">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K259" t="s">
         <v>947</v>
@@ -12321,13 +12327,13 @@
         <v>53</v>
       </c>
       <c r="B260">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D260" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E260" t="s">
         <v>684</v>
@@ -12345,7 +12351,7 @@
         <v>112</v>
       </c>
       <c r="J260">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K260" t="s">
         <v>948</v>
@@ -12356,13 +12362,13 @@
         <v>53</v>
       </c>
       <c r="B261">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C261" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="D261" t="s">
-        <v>429</v>
+        <v>582</v>
       </c>
       <c r="E261" t="s">
         <v>684</v>
@@ -12380,7 +12386,7 @@
         <v>112</v>
       </c>
       <c r="J261">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K261" t="s">
         <v>949</v>
@@ -12391,13 +12397,13 @@
         <v>53</v>
       </c>
       <c r="B262">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C262" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D262" t="s">
-        <v>569</v>
+        <v>429</v>
       </c>
       <c r="E262" t="s">
         <v>684</v>
@@ -12415,7 +12421,7 @@
         <v>112</v>
       </c>
       <c r="J262">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="s">
         <v>950</v>
@@ -12423,16 +12429,16 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C263" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D263" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="E263" t="s">
         <v>684</v>
@@ -12450,7 +12456,7 @@
         <v>112</v>
       </c>
       <c r="J263">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K263" t="s">
         <v>951</v>
@@ -12461,13 +12467,13 @@
         <v>54</v>
       </c>
       <c r="B264">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D264" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E264" t="s">
         <v>684</v>
@@ -12485,7 +12491,7 @@
         <v>112</v>
       </c>
       <c r="J264">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K264" t="s">
         <v>952</v>
@@ -12496,13 +12502,13 @@
         <v>54</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C265" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D265" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E265" t="s">
         <v>684</v>
@@ -12520,7 +12526,7 @@
         <v>112</v>
       </c>
       <c r="J265">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K265" t="s">
         <v>953</v>
@@ -12531,13 +12537,13 @@
         <v>54</v>
       </c>
       <c r="B266">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C266" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D266" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E266" t="s">
         <v>684</v>
@@ -12555,7 +12561,7 @@
         <v>112</v>
       </c>
       <c r="J266">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K266" t="s">
         <v>954</v>
@@ -12566,13 +12572,13 @@
         <v>54</v>
       </c>
       <c r="B267">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C267" t="s">
-        <v>141</v>
+        <v>266</v>
       </c>
       <c r="D267" t="s">
-        <v>429</v>
+        <v>586</v>
       </c>
       <c r="E267" t="s">
         <v>684</v>
@@ -12590,7 +12596,7 @@
         <v>112</v>
       </c>
       <c r="J267">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K267" t="s">
         <v>955</v>
@@ -12601,13 +12607,13 @@
         <v>54</v>
       </c>
       <c r="B268">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268" t="s">
-        <v>267</v>
+        <v>141</v>
       </c>
       <c r="D268" t="s">
-        <v>587</v>
+        <v>429</v>
       </c>
       <c r="E268" t="s">
         <v>684</v>
@@ -12625,7 +12631,7 @@
         <v>112</v>
       </c>
       <c r="J268">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K268" t="s">
         <v>956</v>
@@ -12633,16 +12639,16 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B269">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C269" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D269" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E269" t="s">
         <v>684</v>
@@ -12660,7 +12666,7 @@
         <v>112</v>
       </c>
       <c r="J269">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K269" t="s">
         <v>957</v>
@@ -12671,13 +12677,13 @@
         <v>55</v>
       </c>
       <c r="B270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E270" t="s">
         <v>684</v>
@@ -12695,7 +12701,7 @@
         <v>112</v>
       </c>
       <c r="J270">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K270" t="s">
         <v>958</v>
@@ -12706,13 +12712,13 @@
         <v>55</v>
       </c>
       <c r="B271">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C271" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D271" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E271" t="s">
         <v>684</v>
@@ -12730,7 +12736,7 @@
         <v>112</v>
       </c>
       <c r="J271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K271" t="s">
         <v>959</v>
@@ -12741,13 +12747,13 @@
         <v>55</v>
       </c>
       <c r="B272">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C272" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D272" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E272" t="s">
         <v>684</v>
@@ -12765,7 +12771,7 @@
         <v>112</v>
       </c>
       <c r="J272">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K272" t="s">
         <v>960</v>
@@ -12776,13 +12782,13 @@
         <v>55</v>
       </c>
       <c r="B273">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C273" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D273" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E273" t="s">
         <v>684</v>
@@ -12800,7 +12806,7 @@
         <v>112</v>
       </c>
       <c r="J273">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K273" t="s">
         <v>961</v>
@@ -12811,13 +12817,13 @@
         <v>55</v>
       </c>
       <c r="B274">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C274" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="D274" t="s">
-        <v>429</v>
+        <v>592</v>
       </c>
       <c r="E274" t="s">
         <v>684</v>
@@ -12835,7 +12841,7 @@
         <v>112</v>
       </c>
       <c r="J274">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K274" t="s">
         <v>962</v>
@@ -12843,34 +12849,34 @@
     </row>
     <row r="275" spans="1:11">
       <c r="A275" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B275">
+        <v>10</v>
+      </c>
+      <c r="C275" t="s">
+        <v>141</v>
+      </c>
+      <c r="D275" t="s">
+        <v>429</v>
+      </c>
+      <c r="E275" t="s">
+        <v>684</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>0</v>
+      </c>
+      <c r="I275">
+        <v>112</v>
+      </c>
+      <c r="J275">
         <v>1</v>
-      </c>
-      <c r="C275" t="s">
-        <v>273</v>
-      </c>
-      <c r="D275" t="s">
-        <v>593</v>
-      </c>
-      <c r="E275" t="s">
-        <v>685</v>
-      </c>
-      <c r="F275">
-        <v>0</v>
-      </c>
-      <c r="G275">
-        <v>0</v>
-      </c>
-      <c r="H275">
-        <v>0</v>
-      </c>
-      <c r="I275">
-        <v>112</v>
-      </c>
-      <c r="J275">
-        <v>6</v>
       </c>
       <c r="K275" t="s">
         <v>963</v>
@@ -12881,13 +12887,13 @@
         <v>56</v>
       </c>
       <c r="B276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D276" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E276" t="s">
         <v>685</v>
@@ -12905,7 +12911,7 @@
         <v>112</v>
       </c>
       <c r="J276">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K276" t="s">
         <v>964</v>
@@ -12916,13 +12922,13 @@
         <v>56</v>
       </c>
       <c r="B277">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D277" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E277" t="s">
         <v>685</v>
@@ -12940,7 +12946,7 @@
         <v>112</v>
       </c>
       <c r="J277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K277" t="s">
         <v>965</v>
@@ -12951,13 +12957,13 @@
         <v>56</v>
       </c>
       <c r="B278">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D278" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E278" t="s">
         <v>685</v>
@@ -12975,7 +12981,7 @@
         <v>112</v>
       </c>
       <c r="J278">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K278" t="s">
         <v>966</v>
@@ -12986,13 +12992,13 @@
         <v>56</v>
       </c>
       <c r="B279">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C279" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="D279" t="s">
-        <v>429</v>
+        <v>596</v>
       </c>
       <c r="E279" t="s">
         <v>685</v>
@@ -13010,7 +13016,7 @@
         <v>112</v>
       </c>
       <c r="J279">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K279" t="s">
         <v>967</v>
@@ -13021,13 +13027,13 @@
         <v>56</v>
       </c>
       <c r="B280">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
-        <v>277</v>
+        <v>141</v>
       </c>
       <c r="D280" t="s">
-        <v>597</v>
+        <v>429</v>
       </c>
       <c r="E280" t="s">
         <v>685</v>
@@ -13045,7 +13051,7 @@
         <v>112</v>
       </c>
       <c r="J280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K280" t="s">
         <v>968</v>
@@ -13053,16 +13059,16 @@
     </row>
     <row r="281" spans="1:11">
       <c r="A281" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C281" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D281" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E281" t="s">
         <v>685</v>
@@ -13080,7 +13086,7 @@
         <v>112</v>
       </c>
       <c r="J281">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K281" t="s">
         <v>969</v>
@@ -13091,13 +13097,13 @@
         <v>57</v>
       </c>
       <c r="B282">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D282" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E282" t="s">
         <v>685</v>
@@ -13115,7 +13121,7 @@
         <v>112</v>
       </c>
       <c r="J282">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K282" t="s">
         <v>970</v>
@@ -13126,13 +13132,13 @@
         <v>57</v>
       </c>
       <c r="B283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C283" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D283" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E283" t="s">
         <v>685</v>
@@ -13150,7 +13156,7 @@
         <v>112</v>
       </c>
       <c r="J283">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K283" t="s">
         <v>971</v>
@@ -13161,13 +13167,13 @@
         <v>57</v>
       </c>
       <c r="B284">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C284" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D284" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E284" t="s">
         <v>685</v>
@@ -13185,7 +13191,7 @@
         <v>112</v>
       </c>
       <c r="J284">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K284" t="s">
         <v>972</v>
@@ -13196,13 +13202,13 @@
         <v>57</v>
       </c>
       <c r="B285">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C285" t="s">
-        <v>103</v>
+        <v>281</v>
       </c>
       <c r="D285" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
       <c r="E285" t="s">
         <v>685</v>
@@ -13220,7 +13226,7 @@
         <v>112</v>
       </c>
       <c r="J285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K285" t="s">
         <v>973</v>
@@ -13231,13 +13237,13 @@
         <v>57</v>
       </c>
       <c r="B286">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C286" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
       <c r="D286" t="s">
-        <v>602</v>
+        <v>429</v>
       </c>
       <c r="E286" t="s">
         <v>685</v>
@@ -13255,7 +13261,7 @@
         <v>112</v>
       </c>
       <c r="J286">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K286" t="s">
         <v>974</v>
@@ -13263,16 +13269,19 @@
     </row>
     <row r="287" spans="1:11">
       <c r="A287" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B287">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C287" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D287" t="s">
-        <v>603</v>
+        <v>602</v>
+      </c>
+      <c r="E287" t="s">
+        <v>685</v>
       </c>
       <c r="F287">
         <v>0</v>
@@ -13285,6 +13294,9 @@
       </c>
       <c r="I287">
         <v>112</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
       </c>
       <c r="K287" t="s">
         <v>975</v>
@@ -13295,13 +13307,13 @@
         <v>58</v>
       </c>
       <c r="B288">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C288" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D288" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F288">
         <v>0</v>
@@ -13324,13 +13336,13 @@
         <v>58</v>
       </c>
       <c r="B289">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C289" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D289" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F289">
         <v>0</v>
@@ -13353,13 +13365,13 @@
         <v>58</v>
       </c>
       <c r="B290">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C290" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D290" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -13382,13 +13394,13 @@
         <v>58</v>
       </c>
       <c r="B291">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C291" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D291" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -13411,13 +13423,13 @@
         <v>58</v>
       </c>
       <c r="B292">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C292" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D292" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F292">
         <v>0</v>
@@ -13440,13 +13452,13 @@
         <v>58</v>
       </c>
       <c r="B293">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C293" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D293" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F293">
         <v>0</v>
@@ -13469,13 +13481,13 @@
         <v>58</v>
       </c>
       <c r="B294">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C294" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D294" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F294">
         <v>0</v>
@@ -13498,13 +13510,13 @@
         <v>58</v>
       </c>
       <c r="B295">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C295" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D295" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F295">
         <v>0</v>
@@ -13527,13 +13539,13 @@
         <v>58</v>
       </c>
       <c r="B296">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C296" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D296" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F296">
         <v>0</v>
@@ -13556,13 +13568,13 @@
         <v>58</v>
       </c>
       <c r="B297">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C297" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D297" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -13585,13 +13597,13 @@
         <v>58</v>
       </c>
       <c r="B298">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C298" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D298" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F298">
         <v>0</v>
@@ -13614,13 +13626,13 @@
         <v>58</v>
       </c>
       <c r="B299">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C299" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D299" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F299">
         <v>0</v>
@@ -13643,13 +13655,13 @@
         <v>58</v>
       </c>
       <c r="B300">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C300" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D300" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F300">
         <v>0</v>
@@ -13672,13 +13684,13 @@
         <v>58</v>
       </c>
       <c r="B301">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D301" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F301">
         <v>0</v>
@@ -13701,13 +13713,13 @@
         <v>58</v>
       </c>
       <c r="B302">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C302" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D302" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -13730,13 +13742,13 @@
         <v>58</v>
       </c>
       <c r="B303">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C303" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D303" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -13759,13 +13771,13 @@
         <v>58</v>
       </c>
       <c r="B304">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C304" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D304" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F304">
         <v>0</v>
@@ -13788,13 +13800,13 @@
         <v>58</v>
       </c>
       <c r="B305">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C305" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D305" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F305">
         <v>0</v>
@@ -13817,13 +13829,13 @@
         <v>58</v>
       </c>
       <c r="B306">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C306" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D306" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F306">
         <v>0</v>
@@ -13846,13 +13858,13 @@
         <v>58</v>
       </c>
       <c r="B307">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C307" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D307" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F307">
         <v>0</v>
@@ -13875,13 +13887,13 @@
         <v>58</v>
       </c>
       <c r="B308">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C308" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D308" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F308">
         <v>0</v>
@@ -13904,13 +13916,13 @@
         <v>58</v>
       </c>
       <c r="B309">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C309" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D309" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -13933,13 +13945,13 @@
         <v>58</v>
       </c>
       <c r="B310">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C310" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D310" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F310">
         <v>0</v>
@@ -13962,13 +13974,13 @@
         <v>58</v>
       </c>
       <c r="B311">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C311" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D311" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -13991,13 +14003,13 @@
         <v>58</v>
       </c>
       <c r="B312">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C312" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D312" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -14020,13 +14032,13 @@
         <v>58</v>
       </c>
       <c r="B313">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C313" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D313" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F313">
         <v>0</v>
@@ -14049,13 +14061,13 @@
         <v>58</v>
       </c>
       <c r="B314">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C314" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D314" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F314">
         <v>0</v>
@@ -14078,13 +14090,13 @@
         <v>58</v>
       </c>
       <c r="B315">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C315" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D315" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F315">
         <v>0</v>
@@ -14107,13 +14119,13 @@
         <v>58</v>
       </c>
       <c r="B316">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C316" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D316" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F316">
         <v>0</v>
@@ -14136,13 +14148,13 @@
         <v>58</v>
       </c>
       <c r="B317">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C317" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D317" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F317">
         <v>0</v>
@@ -14165,13 +14177,13 @@
         <v>58</v>
       </c>
       <c r="B318">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C318" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D318" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -14194,13 +14206,13 @@
         <v>58</v>
       </c>
       <c r="B319">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C319" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D319" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F319">
         <v>0</v>
@@ -14223,13 +14235,13 @@
         <v>58</v>
       </c>
       <c r="B320">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C320" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D320" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F320">
         <v>0</v>
@@ -14252,13 +14264,13 @@
         <v>58</v>
       </c>
       <c r="B321">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C321" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D321" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -14281,13 +14293,13 @@
         <v>58</v>
       </c>
       <c r="B322">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C322" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D322" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F322">
         <v>0</v>
@@ -14310,13 +14322,13 @@
         <v>58</v>
       </c>
       <c r="B323">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C323" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D323" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F323">
         <v>0</v>
@@ -14339,13 +14351,13 @@
         <v>58</v>
       </c>
       <c r="B324">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C324" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D324" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F324">
         <v>0</v>
@@ -14368,13 +14380,13 @@
         <v>58</v>
       </c>
       <c r="B325">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C325" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D325" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F325">
         <v>0</v>
@@ -14397,13 +14409,13 @@
         <v>58</v>
       </c>
       <c r="B326">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C326" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D326" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F326">
         <v>0</v>
@@ -14426,13 +14438,13 @@
         <v>58</v>
       </c>
       <c r="B327">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C327" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D327" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -14455,13 +14467,13 @@
         <v>58</v>
       </c>
       <c r="B328">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C328" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D328" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F328">
         <v>0</v>
@@ -14484,13 +14496,13 @@
         <v>58</v>
       </c>
       <c r="B329">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C329" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D329" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -14513,13 +14525,13 @@
         <v>58</v>
       </c>
       <c r="B330">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C330" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D330" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F330">
         <v>0</v>
@@ -14542,13 +14554,13 @@
         <v>58</v>
       </c>
       <c r="B331">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C331" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D331" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F331">
         <v>0</v>
@@ -14571,13 +14583,13 @@
         <v>58</v>
       </c>
       <c r="B332">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C332" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D332" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -14600,13 +14612,13 @@
         <v>58</v>
       </c>
       <c r="B333">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C333" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D333" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F333">
         <v>0</v>
@@ -14629,13 +14641,13 @@
         <v>58</v>
       </c>
       <c r="B334">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C334" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D334" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F334">
         <v>0</v>
@@ -14658,13 +14670,13 @@
         <v>58</v>
       </c>
       <c r="B335">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C335" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D335" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -14687,13 +14699,13 @@
         <v>58</v>
       </c>
       <c r="B336">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C336" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D336" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -14716,13 +14728,13 @@
         <v>58</v>
       </c>
       <c r="B337">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C337" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D337" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F337">
         <v>0</v>
@@ -14745,13 +14757,13 @@
         <v>58</v>
       </c>
       <c r="B338">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C338" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D338" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F338">
         <v>0</v>
@@ -14774,13 +14786,13 @@
         <v>58</v>
       </c>
       <c r="B339">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C339" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D339" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -14803,13 +14815,13 @@
         <v>58</v>
       </c>
       <c r="B340">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C340" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D340" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F340">
         <v>0</v>
@@ -14832,13 +14844,13 @@
         <v>58</v>
       </c>
       <c r="B341">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C341" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D341" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -14861,13 +14873,13 @@
         <v>58</v>
       </c>
       <c r="B342">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C342" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D342" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F342">
         <v>0</v>
@@ -14890,13 +14902,13 @@
         <v>58</v>
       </c>
       <c r="B343">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C343" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D343" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F343">
         <v>0</v>
@@ -14919,13 +14931,13 @@
         <v>58</v>
       </c>
       <c r="B344">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C344" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D344" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F344">
         <v>0</v>
@@ -14948,13 +14960,13 @@
         <v>58</v>
       </c>
       <c r="B345">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C345" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D345" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -14977,13 +14989,13 @@
         <v>58</v>
       </c>
       <c r="B346">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C346" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D346" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F346">
         <v>0</v>
@@ -15006,13 +15018,13 @@
         <v>58</v>
       </c>
       <c r="B347">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C347" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D347" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -15035,13 +15047,13 @@
         <v>58</v>
       </c>
       <c r="B348">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C348" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D348" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F348">
         <v>0</v>
@@ -15064,13 +15076,13 @@
         <v>58</v>
       </c>
       <c r="B349">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C349" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D349" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F349">
         <v>0</v>
@@ -15093,13 +15105,13 @@
         <v>58</v>
       </c>
       <c r="B350">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C350" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D350" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F350">
         <v>0</v>
@@ -15122,13 +15134,13 @@
         <v>58</v>
       </c>
       <c r="B351">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C351" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D351" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -15151,13 +15163,13 @@
         <v>58</v>
       </c>
       <c r="B352">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C352" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D352" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F352">
         <v>0</v>
@@ -15180,13 +15192,13 @@
         <v>58</v>
       </c>
       <c r="B353">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C353" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D353" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -15209,13 +15221,13 @@
         <v>58</v>
       </c>
       <c r="B354">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C354" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D354" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F354">
         <v>0</v>
@@ -15238,13 +15250,13 @@
         <v>58</v>
       </c>
       <c r="B355">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C355" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D355" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F355">
         <v>0</v>
@@ -15267,13 +15279,13 @@
         <v>58</v>
       </c>
       <c r="B356">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C356" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D356" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -15296,13 +15308,13 @@
         <v>58</v>
       </c>
       <c r="B357">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C357" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D357" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -15325,13 +15337,13 @@
         <v>58</v>
       </c>
       <c r="B358">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C358" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D358" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F358">
         <v>0</v>
@@ -15354,13 +15366,13 @@
         <v>58</v>
       </c>
       <c r="B359">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C359" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D359" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -15383,13 +15395,13 @@
         <v>58</v>
       </c>
       <c r="B360">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C360" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D360" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -15412,13 +15424,13 @@
         <v>58</v>
       </c>
       <c r="B361">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C361" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D361" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F361">
         <v>0</v>
@@ -15441,13 +15453,13 @@
         <v>58</v>
       </c>
       <c r="B362">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C362" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D362" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F362">
         <v>0</v>
@@ -15470,13 +15482,13 @@
         <v>58</v>
       </c>
       <c r="B363">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C363" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D363" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F363">
         <v>0</v>
@@ -15496,13 +15508,16 @@
     </row>
     <row r="364" spans="1:11">
       <c r="A364" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B364">
-        <v>3801</v>
+        <v>77</v>
       </c>
       <c r="C364" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="D364" t="s">
+        <v>679</v>
       </c>
       <c r="F364">
         <v>0</v>
@@ -15525,10 +15540,10 @@
         <v>59</v>
       </c>
       <c r="B365">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="C365" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F365">
         <v>0</v>
@@ -15551,10 +15566,10 @@
         <v>59</v>
       </c>
       <c r="B366">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="C366" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F366">
         <v>0</v>
@@ -15577,10 +15592,10 @@
         <v>59</v>
       </c>
       <c r="B367">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="C367" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F367">
         <v>0</v>
@@ -15603,10 +15618,10 @@
         <v>59</v>
       </c>
       <c r="B368">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="C368" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F368">
         <v>0</v>
@@ -15629,10 +15644,10 @@
         <v>59</v>
       </c>
       <c r="B369">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="C369" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F369">
         <v>0</v>
@@ -15655,10 +15670,10 @@
         <v>59</v>
       </c>
       <c r="B370">
-        <v>1001</v>
+        <v>3806</v>
       </c>
       <c r="C370" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F370">
         <v>0</v>
@@ -15681,10 +15696,10 @@
         <v>59</v>
       </c>
       <c r="B371">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C371" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F371">
         <v>0</v>
@@ -15707,10 +15722,10 @@
         <v>59</v>
       </c>
       <c r="B372">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C372" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F372">
         <v>0</v>
@@ -15733,10 +15748,10 @@
         <v>59</v>
       </c>
       <c r="B373">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C373" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F373">
         <v>0</v>
@@ -15759,10 +15774,10 @@
         <v>59</v>
       </c>
       <c r="B374">
-        <v>3501</v>
+        <v>1004</v>
       </c>
       <c r="C374" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F374">
         <v>0</v>
@@ -15785,10 +15800,10 @@
         <v>59</v>
       </c>
       <c r="B375">
-        <v>3502</v>
+        <v>3501</v>
       </c>
       <c r="C375" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F375">
         <v>0</v>
@@ -15811,10 +15826,10 @@
         <v>59</v>
       </c>
       <c r="B376">
-        <v>3503</v>
+        <v>3502</v>
       </c>
       <c r="C376" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F376">
         <v>0</v>
@@ -15837,10 +15852,10 @@
         <v>59</v>
       </c>
       <c r="B377">
-        <v>3504</v>
+        <v>3503</v>
       </c>
       <c r="C377" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F377">
         <v>0</v>
@@ -15863,10 +15878,10 @@
         <v>59</v>
       </c>
       <c r="B378">
-        <v>3505</v>
+        <v>3504</v>
       </c>
       <c r="C378" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F378">
         <v>0</v>
@@ -15889,10 +15904,10 @@
         <v>59</v>
       </c>
       <c r="B379">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="C379" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F379">
         <v>0</v>
@@ -15915,10 +15930,10 @@
         <v>59</v>
       </c>
       <c r="B380">
-        <v>3507</v>
+        <v>3506</v>
       </c>
       <c r="C380" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F380">
         <v>0</v>
@@ -15941,10 +15956,10 @@
         <v>59</v>
       </c>
       <c r="B381">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="C381" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F381">
         <v>0</v>
@@ -15967,10 +15982,10 @@
         <v>59</v>
       </c>
       <c r="B382">
-        <v>3509</v>
+        <v>3508</v>
       </c>
       <c r="C382" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F382">
         <v>0</v>
@@ -15993,10 +16008,10 @@
         <v>59</v>
       </c>
       <c r="B383">
-        <v>3510</v>
+        <v>3509</v>
       </c>
       <c r="C383" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F383">
         <v>0</v>
@@ -16019,10 +16034,10 @@
         <v>59</v>
       </c>
       <c r="B384">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="C384" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F384">
         <v>0</v>
@@ -16042,16 +16057,13 @@
     </row>
     <row r="385" spans="1:11">
       <c r="A385" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B385">
-        <v>1</v>
+        <v>3511</v>
       </c>
       <c r="C385" t="s">
-        <v>381</v>
-      </c>
-      <c r="D385" t="s">
-        <v>680</v>
+        <v>380</v>
       </c>
       <c r="F385">
         <v>0</v>
@@ -16064,9 +16076,6 @@
       </c>
       <c r="I385">
         <v>112</v>
-      </c>
-      <c r="J385">
-        <v>3</v>
       </c>
       <c r="K385" t="s">
         <v>1073</v>
@@ -16077,13 +16086,13 @@
         <v>60</v>
       </c>
       <c r="B386">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C386" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D386" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F386">
         <v>0</v>
@@ -16096,6 +16105,9 @@
       </c>
       <c r="I386">
         <v>112</v>
+      </c>
+      <c r="J386">
+        <v>3</v>
       </c>
       <c r="K386" t="s">
         <v>1074</v>
@@ -16106,13 +16118,13 @@
         <v>60</v>
       </c>
       <c r="B387">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C387" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D387" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F387">
         <v>0</v>
@@ -16125,9 +16137,6 @@
       </c>
       <c r="I387">
         <v>112</v>
-      </c>
-      <c r="J387">
-        <v>2</v>
       </c>
       <c r="K387" t="s">
         <v>1075</v>
@@ -16138,13 +16147,13 @@
         <v>60</v>
       </c>
       <c r="B388">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C388" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D388" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F388">
         <v>0</v>
@@ -16157,9 +16166,41 @@
       </c>
       <c r="I388">
         <v>112</v>
+      </c>
+      <c r="J388">
+        <v>2</v>
       </c>
       <c r="K388" t="s">
         <v>1076</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11">
+      <c r="A389" t="s">
+        <v>60</v>
+      </c>
+      <c r="B389">
+        <v>4</v>
+      </c>
+      <c r="C389" t="s">
+        <v>384</v>
+      </c>
+      <c r="D389" t="s">
+        <v>683</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+      <c r="G389">
+        <v>0</v>
+      </c>
+      <c r="H389">
+        <v>0</v>
+      </c>
+      <c r="I389">
+        <v>112</v>
+      </c>
+      <c r="K389" t="s">
+        <v>1077</v>
       </c>
     </row>
   </sheetData>
